--- a/biology/Botanique/Grevillea_chrysophaea/Grevillea_chrysophaea.xlsx
+++ b/biology/Botanique/Grevillea_chrysophaea/Grevillea_chrysophaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea chrysophaea est une espèce de buisson de la famille des Proteaceae endémique au Victoria en Australie.
 Il forme un buisson étalé, ou parfois rampant, faisant entre 0,3 et 2,5 mètres de hauteur. Ses feuilles sont entières, oblongues à linéaires et font de 1,5 à 6 cm de long et de 3 à 15 mm de large. Les fleurs dont la couleur varie d'un jaune terne à d'or ont un style rouge ou orange. Ils sont les plus prolifiques entre le début de l'hiver et le début de l'été.
